--- a/xlsx/企业文化_intext.xlsx
+++ b/xlsx/企业文化_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>儀式</t>
+    <t>仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>符號</t>
+    <t>符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BF%B5</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>學生會</t>
+    <t>学生会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>領導人</t>
+    <t>领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>辦公室政治</t>
+    <t>办公室政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%BD%A2%E8%B5%84%E4%BA%A7</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
